--- a/AlgoritmosLCFEstadisticas2.xlsx
+++ b/AlgoritmosLCFEstadisticas2.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis Flores Personal\Luis Flores unitec\2023\Q3\Lenguajes\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEC0E63-C663-4CBB-8C6D-7F9F6642A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12F60B-3DFE-467F-8A5C-FE1E29ECEF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>SizeArray</t>
   </si>
@@ -50,6 +60,36 @@
   </si>
   <si>
     <t>heap Sort</t>
+  </si>
+  <si>
+    <t>QUICK SORT</t>
+  </si>
+  <si>
+    <t>MERGE SORT</t>
+  </si>
+  <si>
+    <t>INSERTION SORT</t>
+  </si>
+  <si>
+    <t>BUBBLE SORT</t>
+  </si>
+  <si>
+    <t>HEAP SORT</t>
+  </si>
+  <si>
+    <t>Algoritmos</t>
+  </si>
+  <si>
+    <t>Tiempos</t>
+  </si>
+  <si>
+    <t>Array Size</t>
+  </si>
+  <si>
+    <t>SELECTION SORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOGO SORT </t>
   </si>
 </sst>
 </file>
@@ -367,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:V27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -488,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="R2">
-        <v>5.84</v>
+        <v>1.81</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -505,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -541,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="R3">
-        <v>4.43</v>
+        <v>1.81</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -558,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -594,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="R4">
-        <v>3.62</v>
+        <v>1.81</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -611,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -647,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="R5">
-        <v>4.32</v>
+        <v>1.81</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -664,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -676,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>9.0500000000000007</v>
+        <v>8.14</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -700,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="R6">
-        <v>6.65</v>
+        <v>1.81</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -717,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -753,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="R7">
-        <v>5.03</v>
+        <v>1.81</v>
       </c>
       <c r="S7">
         <v>6</v>
@@ -770,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.61</v>
+        <v>1.81</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -806,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>4.6399999999999997</v>
+        <v>1.81</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -823,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.61</v>
+        <v>1.81</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -859,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="R9">
-        <v>6.64</v>
+        <v>1.81</v>
       </c>
       <c r="S9">
         <v>8</v>
@@ -876,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>1.81</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -912,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="R10">
-        <v>5.64</v>
+        <v>1.81</v>
       </c>
       <c r="S10">
         <v>9</v>
@@ -929,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.61</v>
+        <v>1.81</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -965,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="R11">
-        <v>3.51</v>
+        <v>1.81</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -986,559 +1026,94 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(C2:C11)</f>
+        <v>1.8160000000000001</v>
       </c>
       <c r="C16">
-        <v>1.01</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>119.21</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(H2:H11)</f>
+        <v>8.9589999999999979</v>
       </c>
       <c r="C17">
-        <v>1.01</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>119.65</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>35</v>
-      </c>
-      <c r="L17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>69.150000000000006</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17">
-        <v>6.85</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(M2:M11)</f>
+        <v>5.032</v>
       </c>
       <c r="C18">
-        <v>1.01</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>119.62</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>35</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>62.1</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>35</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18">
-        <v>6.85</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(R2:R11)</f>
+        <v>1.81</v>
       </c>
       <c r="C19">
-        <v>1.01</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>119.62</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>35</v>
-      </c>
-      <c r="L19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <v>59.24</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>35</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>6.85</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="T19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1.28</v>
       </c>
       <c r="C20">
-        <v>1.01</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>119.64</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>35</v>
-      </c>
-      <c r="L20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>59.14</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>35</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20">
-        <v>6.85</v>
-      </c>
-      <c r="S20">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>9.0380000000000003</v>
       </c>
       <c r="C21">
-        <v>1.01</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>119.63</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>35</v>
-      </c>
-      <c r="L21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>59.54</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>35</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <v>6.85</v>
-      </c>
-      <c r="S21">
-        <v>5</v>
-      </c>
-      <c r="T21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>16.827999999999999</v>
       </c>
       <c r="C22">
-        <v>1.01</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>119.64</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>5.03</v>
-      </c>
-      <c r="N22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>35</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22">
-        <v>6.85</v>
-      </c>
-      <c r="S22">
-        <v>6</v>
-      </c>
-      <c r="T22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>1.01</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>119.65</v>
-      </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>35</v>
-      </c>
-      <c r="L23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23">
-        <v>69.150000000000006</v>
-      </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="P23">
-        <v>35</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23">
-        <v>6.87</v>
-      </c>
-      <c r="S23">
-        <v>7</v>
-      </c>
-      <c r="T23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1.01</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>119.66</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>35</v>
-      </c>
-      <c r="L24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24">
-        <v>67.14</v>
-      </c>
-      <c r="N24">
-        <v>8</v>
-      </c>
-      <c r="P24">
-        <v>35</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R24">
-        <v>6.85</v>
-      </c>
-      <c r="S24">
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>1.01</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>119.64</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>35</v>
-      </c>
-      <c r="L25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25">
-        <v>66.849999999999994</v>
-      </c>
-      <c r="N25">
-        <v>9</v>
-      </c>
-      <c r="P25">
-        <v>35</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25">
-        <v>6.88</v>
-      </c>
-      <c r="S25">
-        <v>9</v>
-      </c>
-      <c r="T25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="L26" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26">
-        <v>63.51</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="P26">
-        <v>35</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26">
-        <v>6.85</v>
-      </c>
-      <c r="S26">
-        <v>10</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="S27">
         <v>10</v>
       </c>
     </row>
